--- a/DocsApp-test-automation/test-scripts/android/Module1.xlsx
+++ b/DocsApp-test-automation/test-scripts/android/Module1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DocsApp\DocsApp-test-automation\test-scripts\android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git2\DocsApp-test-automation\test-scripts\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t>Test cases</t>
   </si>
@@ -249,6 +249,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>9999999999</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -258,7 +261,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>9999999999</t>
+    <t>55000</t>
   </si>
 </sst>
 </file>
@@ -760,7 +763,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -880,7 +883,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,7 +949,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E4:E5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1269,7 +1272,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>12</v>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
@@ -1325,15 +1328,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>'dont delete'!$E$2:$E$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>'dont delete'!$D$2:$D$7</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'dont delete'!$E$2:$E$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1346,7 +1349,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E15"/>
+      <selection activeCell="A20" sqref="A20:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1451,7 @@
           <x14:formula1>
             <xm:f>'dont delete'!$E$2:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D13 D1:D8 D17:D1048576</xm:sqref>
+          <xm:sqref>D13 D1:D8 D17:D18 D23:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1460,7 +1463,7 @@
           <x14:formula1>
             <xm:f>'dont delete'!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B13 B16:B1048576</xm:sqref>
+          <xm:sqref>B1:B13 B16:B18 B23:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
